--- a/data/trans_dic/P04B1_2_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P04B1_2_2023-Dificultad-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.4400700015075277</v>
+        <v>0.4400700015075278</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.4592280152402414</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.4507091534964007</v>
+        <v>0.4507091534964008</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3908513150946401</v>
+        <v>0.3939207266548041</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4230898068560905</v>
+        <v>0.4246192106166848</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4228396556068491</v>
+        <v>0.4191855663772975</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4881653679394748</v>
+        <v>0.4936967270969589</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4975827214649851</v>
+        <v>0.4934773623837346</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4807925928391882</v>
+        <v>0.4801807397529844</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         <v>0.5391532256202786</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.551231487706031</v>
+        <v>0.5512314877060309</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.5456517823244574</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5036267145311406</v>
+        <v>0.5078108098850593</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5237754300510499</v>
+        <v>0.5253290811359999</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.52349078613272</v>
+        <v>0.5244576228429919</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5764984580761849</v>
+        <v>0.5751713428043757</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5781931590286317</v>
+        <v>0.5753427635416362</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5659623843356427</v>
+        <v>0.5672341990905877</v>
       </c>
     </row>
     <row r="10">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.6420087544154043</v>
+        <v>0.6420087544154045</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.6510656563229287</v>
+        <v>0.6510656563229286</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.6465422831763594</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6064438129702742</v>
+        <v>0.6097467637696423</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6252302393631561</v>
+        <v>0.6237786677562365</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6263862670715087</v>
+        <v>0.6243720678280427</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6715144013780694</v>
+        <v>0.6715792480139299</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6794108439812988</v>
+        <v>0.6770595712479336</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6682206615989127</v>
+        <v>0.6673356990543086</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.7895793662250703</v>
+        <v>0.7895793662250702</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.7726425308974426</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.7814017571173553</v>
+        <v>0.7814017571173554</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7611644835758853</v>
+        <v>0.7568702290995618</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7445533598138265</v>
+        <v>0.7444247965430045</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7595140317336508</v>
+        <v>0.7610357856372514</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8179542137447861</v>
+        <v>0.815638504145432</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7974675870504824</v>
+        <v>0.7973310074395293</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7996972217872738</v>
+        <v>0.7984693570475062</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.6260970693498554</v>
+        <v>0.6260970693498552</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.6185504492640707</v>
+        <v>0.6185504492640705</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.6222083039915436</v>
+        <v>0.6222083039915434</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6081741165198865</v>
+        <v>0.607454559977081</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6045752388307255</v>
+        <v>0.6042226759886042</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6110833417589004</v>
+        <v>0.6118980928254677</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6436723142658227</v>
+        <v>0.6425821533062738</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6335956098012906</v>
+        <v>0.6319784909184875</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6327655655930352</v>
+        <v>0.6336806601201445</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>194933</v>
+        <v>196464</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>263531</v>
+        <v>264483</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>474262</v>
+        <v>470164</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>243467</v>
+        <v>246226</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>309930</v>
+        <v>307373</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>539263</v>
+        <v>538576</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>482220</v>
+        <v>486226</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>584100</v>
+        <v>585832</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1085022</v>
+        <v>1087025</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>551994</v>
+        <v>550723</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>644785</v>
+        <v>641606</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1173051</v>
+        <v>1175687</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>633326</v>
+        <v>636776</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>654412</v>
+        <v>652892</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1309774</v>
+        <v>1305563</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>701281</v>
+        <v>701349</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>711121</v>
+        <v>708660</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1397250</v>
+        <v>1395400</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>742205</v>
+        <v>738018</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>677800</v>
+        <v>677683</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1432015</v>
+        <v>1434884</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>797581</v>
+        <v>795323</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>725971</v>
+        <v>725846</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1507778</v>
+        <v>1505463</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2113802</v>
+        <v>2111301</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2233943</v>
+        <v>2232640</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>4381904</v>
+        <v>4387747</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2237182</v>
+        <v>2233393</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2341175</v>
+        <v>2335200</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>4537382</v>
+        <v>4543943</v>
       </c>
     </row>
     <row r="24">
